--- a/biology/Microbiologie/Legionella_quinlivanii/Legionella_quinlivanii.xlsx
+++ b/biology/Microbiologie/Legionella_quinlivanii/Legionella_quinlivanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Legionella quinlivanii est une espèce de bactéries gram-négatives de la famille des Legionellaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Legionella quinlivanii sont des bacilles gram-négatifs dont la croissance est possible sur milieu BCYE supplémenté en L-cystéine mais pas en l'absence de cet acide aminé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Legionella quinlivanii sont des bacilles gram-négatifs dont la croissance est possible sur milieu BCYE supplémenté en L-cystéine mais pas en l'absence de cet acide aminé.
 </t>
         </is>
       </c>
@@ -542,12 +556,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Legionella quinlivanii Benson et al. 1990[2]. 
-Cette espèce a été décrite par Robert F. Benson (d), W. Lanier Thacker (d), Reginald P. Waters (d), Peter A. Quinlivan (d), William R. Mayberry (d), Don J. Brenner (d) et Hazel W. Wilkinson (d)[3], sur la base d'un prélèvement d'eau effectué le 10 mars 1986 dans le Sud de l'Australie[3].
-Étymologie
-L'étymologie du nom de cette espèce est la suivante : quin.li.van’i.i. N.L. gen. masc. n. quinlivanii, de Quinlivan, nommé en l'honneur de Peter A. Quinlivan[2], l'un des auteurs de cette espèce, et ce à son insu par le reste de l'équipe[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Legionella quinlivanii Benson et al. 1990. 
+Cette espèce a été décrite par Robert F. Benson (d), W. Lanier Thacker (d), Reginald P. Waters (d), Peter A. Quinlivan (d), William R. Mayberry (d), Don J. Brenner (d) et Hazel W. Wilkinson (d), sur la base d'un prélèvement d'eau effectué le 10 mars 1986 dans le Sud de l'Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Legionella_quinlivanii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Legionella_quinlivanii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de cette espèce est la suivante : quin.li.van’i.i. N.L. gen. masc. n. quinlivanii, de Quinlivan, nommé en l'honneur de Peter A. Quinlivan, l'un des auteurs de cette espèce, et ce à son insu par le reste de l'équipe.
 </t>
         </is>
       </c>
